--- a/Code/Results/Cases/Case_1_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.366116273248849</v>
+        <v>1.67961083434102</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1079488345429738</v>
+        <v>0.1937505428121185</v>
       </c>
       <c r="E2">
-        <v>0.2231571580709684</v>
+        <v>0.2083201996281332</v>
       </c>
       <c r="F2">
-        <v>0.5441052972701783</v>
+        <v>1.213919806098907</v>
       </c>
       <c r="G2">
-        <v>0.0007815589971690076</v>
+        <v>0.002437477770410056</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.340644672416051</v>
+        <v>0.8346540536711338</v>
       </c>
       <c r="J2">
-        <v>0.4114357880178687</v>
+        <v>0.2845129632374039</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.947766257465418</v>
+        <v>0.8194605269708006</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.837372193960078</v>
+        <v>3.003273676669608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.934565999203301</v>
+        <v>1.540912147450399</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1051183568275462</v>
+        <v>0.1935376105644195</v>
       </c>
       <c r="E3">
-        <v>0.2070131901623959</v>
+        <v>0.203688917155592</v>
       </c>
       <c r="F3">
-        <v>0.5221932824334274</v>
+        <v>1.225109026517927</v>
       </c>
       <c r="G3">
-        <v>0.0007866834769617455</v>
+        <v>0.002440928170151561</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3543751834933353</v>
+        <v>0.8488667628801529</v>
       </c>
       <c r="J3">
-        <v>0.3750622415749376</v>
+        <v>0.2732944691124004</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.695880158189198</v>
+        <v>0.738676726841021</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.69993424192478</v>
+        <v>3.009311621701244</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669949413343261</v>
+        <v>1.455552984286669</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1034314936550018</v>
+        <v>0.1934513796467527</v>
       </c>
       <c r="E4">
-        <v>0.1971683124890937</v>
+        <v>0.2008915190453138</v>
       </c>
       <c r="F4">
-        <v>0.5107685118832066</v>
+        <v>1.232960815413492</v>
       </c>
       <c r="G4">
-        <v>0.000789930695796208</v>
+        <v>0.002443160529698022</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3643106999451895</v>
+        <v>0.8583162854298259</v>
       </c>
       <c r="J4">
-        <v>0.3528312885298703</v>
+        <v>0.2664586793000154</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.541329733431752</v>
+        <v>0.6889303194444381</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.621343299435438</v>
+        <v>3.015558088584612</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562166616337095</v>
+        <v>1.420721070384957</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1027568563421895</v>
+        <v>0.1934275086641293</v>
       </c>
       <c r="E5">
-        <v>0.1931727309019209</v>
+        <v>0.1997633776144738</v>
       </c>
       <c r="F5">
-        <v>0.5065920571528153</v>
+        <v>1.236406793098801</v>
       </c>
       <c r="G5">
-        <v>0.0007912799031472306</v>
+        <v>0.00244409893871912</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3687202676878591</v>
+        <v>0.8623486505704037</v>
       </c>
       <c r="J5">
-        <v>0.3437958081847654</v>
+        <v>0.2636865911503747</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.478356011316578</v>
+        <v>0.6686232541694892</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.590671969891247</v>
+        <v>3.018740414737067</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544271333411814</v>
+        <v>1.414934466330408</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.102645603189444</v>
+        <v>0.1934242277652416</v>
       </c>
       <c r="E6">
-        <v>0.1925102320965131</v>
+        <v>0.1995767703638549</v>
       </c>
       <c r="F6">
-        <v>0.5059266291251632</v>
+        <v>1.236993856568866</v>
       </c>
       <c r="G6">
-        <v>0.0007915055216220862</v>
+        <v>0.002444256497156046</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.369473764894046</v>
+        <v>0.8630291858069477</v>
       </c>
       <c r="J6">
-        <v>0.3422968579711778</v>
+        <v>0.263227117546009</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.467899117304512</v>
+        <v>0.6652492096013702</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.585657980267854</v>
+        <v>3.019307252853451</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.668495661558381</v>
+        <v>1.45508341757369</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1034223436174813</v>
+        <v>0.1934510119850756</v>
       </c>
       <c r="E7">
-        <v>0.1971143616149753</v>
+        <v>0.2008762564107442</v>
       </c>
       <c r="F7">
-        <v>0.5107102861444872</v>
+        <v>1.233006292458001</v>
       </c>
       <c r="G7">
-        <v>0.0007899487858670229</v>
+        <v>0.002443173069159115</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3643687308048236</v>
+        <v>0.8583699322045177</v>
       </c>
       <c r="J7">
-        <v>0.3527093389261324</v>
+        <v>0.266421238582609</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.540480446047866</v>
+        <v>0.6886565910809281</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.620924299474524</v>
+        <v>3.015598430205273</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.217219012053306</v>
+        <v>1.631829884199988</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1069622410196658</v>
+        <v>0.1936679309695251</v>
       </c>
       <c r="E8">
-        <v>0.2175762341899627</v>
+        <v>0.2067138544160585</v>
       </c>
       <c r="F8">
-        <v>0.5361096137676356</v>
+        <v>1.217573817647875</v>
       </c>
       <c r="G8">
-        <v>0.0007833053755622008</v>
+        <v>0.002438643902119786</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3450556605010817</v>
+        <v>0.8394044673867818</v>
       </c>
       <c r="J8">
-        <v>0.3988716429821011</v>
+        <v>0.2806341669305112</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.860880462267971</v>
+        <v>0.7916371520637711</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.78871694707405</v>
+        <v>3.004827561442255</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.298069028175576</v>
+        <v>1.976777137161434</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.114313636594261</v>
+        <v>0.1944432645404959</v>
       </c>
       <c r="E9">
-        <v>0.2582765143935717</v>
+        <v>0.2185202691975761</v>
       </c>
       <c r="F9">
-        <v>0.6035138612642896</v>
+        <v>1.195122669839229</v>
       </c>
       <c r="G9">
-        <v>0.0007710481960461542</v>
+        <v>0.002430661141374427</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3199720621109137</v>
+        <v>0.8079563668307692</v>
       </c>
       <c r="J9">
-        <v>0.4903137046170656</v>
+        <v>0.3089068205727727</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.491085867959981</v>
+        <v>0.9923806435823224</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.16870159659166</v>
+        <v>3.003931274173226</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.098158152858844</v>
+        <v>2.229116518662124</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1199731354220575</v>
+        <v>0.1952221294864174</v>
       </c>
       <c r="E10">
-        <v>0.2885923252784224</v>
+        <v>0.2274037122669554</v>
       </c>
       <c r="F10">
-        <v>0.6659964609473406</v>
+        <v>1.183423649672335</v>
       </c>
       <c r="G10">
-        <v>0.000762469124204965</v>
+        <v>0.002425338563347822</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3106028976154036</v>
+        <v>0.7883633986378413</v>
       </c>
       <c r="J10">
-        <v>0.558223739381944</v>
+        <v>0.3299059395533561</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.956882193224146</v>
+        <v>1.139080109274914</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.486360306825816</v>
+        <v>3.015717018884914</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.464194031952275</v>
+        <v>2.343658760216329</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1226064136631777</v>
+        <v>0.1956210349227732</v>
       </c>
       <c r="E11">
-        <v>0.3024895891605297</v>
+        <v>0.2314885383748759</v>
       </c>
       <c r="F11">
-        <v>0.6977776691066708</v>
+        <v>1.17915008735639</v>
       </c>
       <c r="G11">
-        <v>0.0007586483767060273</v>
+        <v>0.002423033748723961</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3086132402950952</v>
+        <v>0.7802151206256553</v>
       </c>
       <c r="J11">
-        <v>0.5893181467467485</v>
+        <v>0.3395048534173384</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.169793012696118</v>
+        <v>1.205636303294739</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.641036745849362</v>
+        <v>3.02380574558947</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.603167740052754</v>
+        <v>2.386995383231579</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1236122549311673</v>
+        <v>0.1957784295239904</v>
       </c>
       <c r="E12">
-        <v>0.3077688587450993</v>
+        <v>0.2330414617195089</v>
       </c>
       <c r="F12">
-        <v>0.7103447465295432</v>
+        <v>1.177683134857233</v>
       </c>
       <c r="G12">
-        <v>0.0007572123991092712</v>
+        <v>0.002422177629837652</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3082144678417293</v>
+        <v>0.7772397640082644</v>
       </c>
       <c r="J12">
-        <v>0.6011255930921919</v>
+        <v>0.3431460408939415</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.250599417059107</v>
+        <v>1.230812625407452</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.701237005120134</v>
+        <v>3.027262830617246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.573219967305477</v>
+        <v>2.377663794759087</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1233952390657009</v>
+        <v>0.1957442510957748</v>
       </c>
       <c r="E13">
-        <v>0.3066311084854121</v>
+        <v>0.232706744211022</v>
       </c>
       <c r="F13">
-        <v>0.7076136976885721</v>
+        <v>1.177992328375424</v>
       </c>
       <c r="G13">
-        <v>0.0007575211952183375</v>
+        <v>0.002422361270588739</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3082841078633791</v>
+        <v>0.777875654007012</v>
       </c>
       <c r="J13">
-        <v>0.5985811332050872</v>
+        <v>0.3423615722757205</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.233187631840849</v>
+        <v>1.225391680528276</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.688196626799055</v>
+        <v>3.026500729792758</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.475619790774374</v>
+        <v>2.347224865910334</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1226889894930494</v>
+        <v>0.1956338572806331</v>
       </c>
       <c r="E14">
-        <v>0.3029235752443427</v>
+        <v>0.2316161774092151</v>
       </c>
       <c r="F14">
-        <v>0.6988006051822993</v>
+        <v>1.179026363541226</v>
       </c>
       <c r="G14">
-        <v>0.0007585300259933594</v>
+        <v>0.00242296298180257</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3085731570086168</v>
+        <v>0.7799681257592539</v>
       </c>
       <c r="J14">
-        <v>0.5902888754997804</v>
+        <v>0.3398042922141826</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.176437148187119</v>
+        <v>1.207708125103295</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.645955839394361</v>
+        <v>3.024082253794148</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.415886311180657</v>
+        <v>2.328575120457344</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1222575285916321</v>
+        <v>0.1955670610289957</v>
       </c>
       <c r="E15">
-        <v>0.3006548190884644</v>
+        <v>0.2309489608524444</v>
       </c>
       <c r="F15">
-        <v>0.6934731825605667</v>
+        <v>1.179679468234752</v>
       </c>
       <c r="G15">
-        <v>0.0007591493491015696</v>
+        <v>0.002423333715145182</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3087972631345934</v>
+        <v>0.7812641868434298</v>
       </c>
       <c r="J15">
-        <v>0.5852139973349324</v>
+        <v>0.3382386921406209</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.141700607373764</v>
+        <v>1.196872869582307</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.62029925216936</v>
+        <v>3.022652241159079</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.074284036520112</v>
+        <v>2.221625717782388</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1198022451945988</v>
+        <v>0.1951969510314413</v>
       </c>
       <c r="E16">
-        <v>0.2876863623016774</v>
+        <v>0.2271376218810488</v>
       </c>
       <c r="F16">
-        <v>0.6639911744915139</v>
+        <v>1.183724084175765</v>
       </c>
       <c r="G16">
-        <v>0.0007627203902953791</v>
+        <v>0.002425491524770818</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3107809866406406</v>
+        <v>0.7889113169545681</v>
       </c>
       <c r="J16">
-        <v>0.5561960112016777</v>
+        <v>0.3292795279044753</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.942991395812896</v>
+        <v>1.13472679670798</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.476470292121718</v>
+        <v>3.015243442618328</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.865297751521268</v>
+        <v>2.155950469634433</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1183112041371785</v>
+        <v>0.1949812690135602</v>
       </c>
       <c r="E17">
-        <v>0.2797588285232138</v>
+        <v>0.2248105420959874</v>
       </c>
       <c r="F17">
-        <v>0.646798709894675</v>
+        <v>1.186474265629478</v>
       </c>
       <c r="G17">
-        <v>0.0007649314558379352</v>
+        <v>0.002426845039458891</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3125991039522944</v>
+        <v>0.793798615991502</v>
       </c>
       <c r="J17">
-        <v>0.5384485851505474</v>
+        <v>0.3237949655203209</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.821374509339023</v>
+        <v>1.096555533230799</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.390953998205021</v>
+        <v>3.011398253302815</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.745285037391795</v>
+        <v>2.118152579084892</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1174591100036224</v>
+        <v>0.1948614164453062</v>
       </c>
       <c r="E18">
-        <v>0.2752090498969153</v>
+        <v>0.2234761925002786</v>
       </c>
       <c r="F18">
-        <v>0.6372228899956127</v>
+        <v>1.188154740192928</v>
       </c>
       <c r="G18">
-        <v>0.0007662109721247976</v>
+        <v>0.002427634511046702</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.313856928770825</v>
+        <v>0.7966816185776295</v>
       </c>
       <c r="J18">
-        <v>0.528259488848164</v>
+        <v>0.3206447710953881</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.751517178181359</v>
+        <v>1.074583751127534</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.342714016245139</v>
+        <v>3.009443199734164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.704681626067895</v>
+        <v>2.105350946033127</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1171715461637035</v>
+        <v>0.194821560423641</v>
       </c>
       <c r="E19">
-        <v>0.2736702389352175</v>
+        <v>0.2230251191642552</v>
       </c>
       <c r="F19">
-        <v>0.6340329736794317</v>
+        <v>1.188740643820786</v>
       </c>
       <c r="G19">
-        <v>0.0007666455556760817</v>
+        <v>0.002427903698625612</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3143184200981928</v>
+        <v>0.7976701046100061</v>
       </c>
       <c r="J19">
-        <v>0.5248127514997805</v>
+        <v>0.3195789332122274</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.727879719146415</v>
+        <v>1.067141662755489</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.326538597125392</v>
+        <v>3.008825265987525</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.887524505300178</v>
+        <v>2.162944132714586</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1184693558759307</v>
+        <v>0.1950037943838012</v>
       </c>
       <c r="E20">
-        <v>0.2806016909298847</v>
+        <v>0.2250578382019697</v>
       </c>
       <c r="F20">
-        <v>0.6485961558234834</v>
+        <v>1.186171290613025</v>
       </c>
       <c r="G20">
-        <v>0.0007646952864418632</v>
+        <v>0.002426699821209435</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3123834166731463</v>
+        <v>0.7932709054613021</v>
       </c>
       <c r="J20">
-        <v>0.540335862709199</v>
+        <v>0.3243783558631037</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.834310913678053</v>
+        <v>1.100620666372095</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.399958222246454</v>
+        <v>3.011781009792799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.504276897533259</v>
+        <v>2.356166568005733</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1228961946208642</v>
+        <v>0.1956661112101443</v>
       </c>
       <c r="E21">
-        <v>0.3040121033727132</v>
+        <v>0.2319363396309697</v>
       </c>
       <c r="F21">
-        <v>0.7013743644698565</v>
+        <v>1.178718529924566</v>
       </c>
       <c r="G21">
-        <v>0.0007582334210387233</v>
+        <v>0.002422785793004145</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3084783969611777</v>
+        <v>0.7793505226372091</v>
       </c>
       <c r="J21">
-        <v>0.5927235950356788</v>
+        <v>0.3405552596693013</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.193100911129534</v>
+        <v>1.212902959951521</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.658317420612889</v>
+        <v>3.024781909238527</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.909516137204378</v>
+        <v>2.482225823628767</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1258400966693571</v>
+        <v>0.1961358804965485</v>
       </c>
       <c r="E22">
-        <v>0.319410111146432</v>
+        <v>0.2364672360151729</v>
       </c>
       <c r="F22">
-        <v>0.7389963037748828</v>
+        <v>1.174730196121899</v>
       </c>
       <c r="G22">
-        <v>0.0007540730129315112</v>
+        <v>0.002420324844953747</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3080081528340486</v>
+        <v>0.7708953173846353</v>
       </c>
       <c r="J22">
-        <v>0.6271543905247654</v>
+        <v>0.3511642782089126</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.428668881373767</v>
+        <v>1.286127520767423</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.83674477497766</v>
+        <v>3.035576497769625</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.693011670557667</v>
+        <v>2.414966775524704</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1242641544101417</v>
+        <v>0.1958818034477332</v>
       </c>
       <c r="E23">
-        <v>0.3111824512786612</v>
+        <v>0.234045836663725</v>
       </c>
       <c r="F23">
-        <v>0.7186130497490382</v>
+        <v>1.176777901390608</v>
       </c>
       <c r="G23">
-        <v>0.0007562880808333894</v>
+        <v>0.002421629441760948</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3080588088099958</v>
+        <v>0.7753491360320126</v>
       </c>
       <c r="J23">
-        <v>0.6087591201249722</v>
+        <v>0.3454988294725894</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.302830611145396</v>
+        <v>1.247061162733132</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.740580212890563</v>
+        <v>3.029604360443841</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.877475370336811</v>
+        <v>2.159782423029867</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1183978395275389</v>
+        <v>0.1949935977449613</v>
       </c>
       <c r="E24">
-        <v>0.2802206084362737</v>
+        <v>0.2249460246544146</v>
       </c>
       <c r="F24">
-        <v>0.647782573739299</v>
+        <v>1.186307956160988</v>
       </c>
       <c r="G24">
-        <v>0.0007648020325241725</v>
+        <v>0.002426765439050719</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3124802688815329</v>
+        <v>0.7935092553034089</v>
       </c>
       <c r="J24">
-        <v>0.5394825807680093</v>
+        <v>0.3241145958606921</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.828462175298796</v>
+        <v>1.098782902476671</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.395884545315852</v>
+        <v>3.011607169540582</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.004855966584955</v>
+        <v>1.883645695261407</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.112280234240103</v>
+        <v>0.1941964786673651</v>
       </c>
       <c r="E25">
-        <v>0.2471983908612359</v>
+        <v>0.2152888913321078</v>
       </c>
       <c r="F25">
-        <v>0.5831751103194733</v>
+        <v>1.200356516219742</v>
       </c>
       <c r="G25">
-        <v>0.0007742858990172187</v>
+        <v>0.002432725040187552</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3252639861749671</v>
+        <v>0.8158479829234402</v>
       </c>
       <c r="J25">
-        <v>0.4654616063628936</v>
+        <v>0.3012171848083796</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.320235998137775</v>
+        <v>0.9382085128125937</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.059720157911045</v>
+        <v>3.001996652292263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.67961083434102</v>
+        <v>3.36611627324902</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1937505428121185</v>
+        <v>0.1079488345430804</v>
       </c>
       <c r="E2">
-        <v>0.2083201996281332</v>
+        <v>0.2231571580709328</v>
       </c>
       <c r="F2">
-        <v>1.213919806098907</v>
+        <v>0.5441052972701925</v>
       </c>
       <c r="G2">
-        <v>0.002437477770410056</v>
+        <v>0.0007815589971969933</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8346540536711338</v>
+        <v>0.3406446724160475</v>
       </c>
       <c r="J2">
-        <v>0.2845129632374039</v>
+        <v>0.4114357880177408</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8194605269708006</v>
+        <v>1.947766257465304</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.003273676669608</v>
+        <v>1.837372193960022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.540912147450399</v>
+        <v>2.934565999203357</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1935376105644195</v>
+        <v>0.105118356827262</v>
       </c>
       <c r="E3">
-        <v>0.203688917155592</v>
+        <v>0.2070131901624279</v>
       </c>
       <c r="F3">
-        <v>1.225109026517927</v>
+        <v>0.5221932824334274</v>
       </c>
       <c r="G3">
-        <v>0.002440928170151561</v>
+        <v>0.0007866834769868297</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8488667628801529</v>
+        <v>0.3543751834933317</v>
       </c>
       <c r="J3">
-        <v>0.2732944691124004</v>
+        <v>0.3750622415749376</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.738676726841021</v>
+        <v>1.695880158189254</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.009311621701244</v>
+        <v>1.699934241924751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.455552984286669</v>
+        <v>2.66994941334309</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1934513796467527</v>
+        <v>0.10343149365535</v>
       </c>
       <c r="E4">
-        <v>0.2008915190453138</v>
+        <v>0.1971683124890937</v>
       </c>
       <c r="F4">
-        <v>1.232960815413492</v>
+        <v>0.5107685118832066</v>
       </c>
       <c r="G4">
-        <v>0.002443160529698022</v>
+        <v>0.0007899306958483329</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8583162854298259</v>
+        <v>0.3643106999451859</v>
       </c>
       <c r="J4">
-        <v>0.2664586793000154</v>
+        <v>0.3528312885298419</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6889303194444381</v>
+        <v>1.541329733431752</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.015558088584612</v>
+        <v>1.621343299435409</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.420721070384957</v>
+        <v>2.562166616336981</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1934275086641293</v>
+        <v>0.1027568563421966</v>
       </c>
       <c r="E5">
-        <v>0.1997633776144738</v>
+        <v>0.1931727309019102</v>
       </c>
       <c r="F5">
-        <v>1.236406793098801</v>
+        <v>0.5065920571528224</v>
       </c>
       <c r="G5">
-        <v>0.00244409893871912</v>
+        <v>0.0007912799031762066</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8623486505704037</v>
+        <v>0.3687202676878911</v>
       </c>
       <c r="J5">
-        <v>0.2636865911503747</v>
+        <v>0.3437958081847512</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6686232541694892</v>
+        <v>1.478356011316606</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.018740414737067</v>
+        <v>1.59067196989119</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.414934466330408</v>
+        <v>2.544271333411814</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1934242277652416</v>
+        <v>0.102645603189444</v>
       </c>
       <c r="E6">
-        <v>0.1995767703638549</v>
+        <v>0.1925102320965131</v>
       </c>
       <c r="F6">
-        <v>1.236993856568866</v>
+        <v>0.5059266291251774</v>
       </c>
       <c r="G6">
-        <v>0.002444256497156046</v>
+        <v>0.0007915055216220124</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8630291858069477</v>
+        <v>0.3694737648940141</v>
       </c>
       <c r="J6">
-        <v>0.263227117546009</v>
+        <v>0.3422968579712347</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6652492096013702</v>
+        <v>1.467899117304597</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.019307252853451</v>
+        <v>1.585657980267825</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.45508341757369</v>
+        <v>2.668495661558495</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1934510119850756</v>
+        <v>0.1034223436172326</v>
       </c>
       <c r="E7">
-        <v>0.2008762564107442</v>
+        <v>0.1971143616149895</v>
       </c>
       <c r="F7">
-        <v>1.233006292458001</v>
+        <v>0.5107102861444801</v>
       </c>
       <c r="G7">
-        <v>0.002443173069159115</v>
+        <v>0.0007899487858619159</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8583699322045177</v>
+        <v>0.36436873080482</v>
       </c>
       <c r="J7">
-        <v>0.266421238582609</v>
+        <v>0.3527093389261466</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6886565910809281</v>
+        <v>1.540480446047809</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.015598430205273</v>
+        <v>1.620924299474524</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.631829884199988</v>
+        <v>3.21721901205359</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1936679309695251</v>
+        <v>0.1069622410195592</v>
       </c>
       <c r="E8">
-        <v>0.2067138544160585</v>
+        <v>0.2175762341899912</v>
       </c>
       <c r="F8">
-        <v>1.217573817647875</v>
+        <v>0.5361096137676356</v>
       </c>
       <c r="G8">
-        <v>0.002438643902119786</v>
+        <v>0.0007833053756428932</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8394044673867818</v>
+        <v>0.3450556605010533</v>
       </c>
       <c r="J8">
-        <v>0.2806341669305112</v>
+        <v>0.3988716429821721</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7916371520637711</v>
+        <v>1.860880462268085</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.004827561442255</v>
+        <v>1.78871694707405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.976777137161434</v>
+        <v>4.298069028175576</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1944432645404959</v>
+        <v>0.1143136365942539</v>
       </c>
       <c r="E9">
-        <v>0.2185202691975761</v>
+        <v>0.2582765143936143</v>
       </c>
       <c r="F9">
-        <v>1.195122669839229</v>
+        <v>0.6035138612643038</v>
       </c>
       <c r="G9">
-        <v>0.002430661141374427</v>
+        <v>0.0007710481960464063</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8079563668307692</v>
+        <v>0.3199720621109137</v>
       </c>
       <c r="J9">
-        <v>0.3089068205727727</v>
+        <v>0.4903137046170798</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9923806435823224</v>
+        <v>2.491085867959924</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.003931274173226</v>
+        <v>2.16870159659166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.229116518662124</v>
+        <v>5.098158152858787</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1952221294864174</v>
+        <v>0.1199731354220432</v>
       </c>
       <c r="E10">
-        <v>0.2274037122669554</v>
+        <v>0.2885923252784508</v>
       </c>
       <c r="F10">
-        <v>1.183423649672335</v>
+        <v>0.6659964609473548</v>
       </c>
       <c r="G10">
-        <v>0.002425338563347822</v>
+        <v>0.0007624691242013098</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7883633986378413</v>
+        <v>0.3106028976154036</v>
       </c>
       <c r="J10">
-        <v>0.3299059395533561</v>
+        <v>0.5582237393819156</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.139080109274914</v>
+        <v>2.956882193224089</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.015717018884914</v>
+        <v>2.486360306825844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.343658760216329</v>
+        <v>5.464194031952445</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1956210349227732</v>
+        <v>0.122606413662929</v>
       </c>
       <c r="E11">
-        <v>0.2314885383748759</v>
+        <v>0.3024895891605865</v>
       </c>
       <c r="F11">
-        <v>1.17915008735639</v>
+        <v>0.6977776691066566</v>
       </c>
       <c r="G11">
-        <v>0.002423033748723961</v>
+        <v>0.0007586483767053893</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7802151206256553</v>
+        <v>0.3086132402950952</v>
       </c>
       <c r="J11">
-        <v>0.3395048534173384</v>
+        <v>0.5893181467466775</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.205636303294739</v>
+        <v>3.169793012696118</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.02380574558947</v>
+        <v>2.641036745849476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.386995383231579</v>
+        <v>5.603167740053152</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1957784295239904</v>
+        <v>0.1236122549313805</v>
       </c>
       <c r="E12">
-        <v>0.2330414617195089</v>
+        <v>0.3077688587450851</v>
       </c>
       <c r="F12">
-        <v>1.177683134857233</v>
+        <v>0.7103447465295289</v>
       </c>
       <c r="G12">
-        <v>0.002422177629837652</v>
+        <v>0.0007572123990485328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7772397640082644</v>
+        <v>0.3082144678417222</v>
       </c>
       <c r="J12">
-        <v>0.3431460408939415</v>
+        <v>0.6011255930921351</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.230812625407452</v>
+        <v>3.250599417059163</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.027262830617246</v>
+        <v>2.701237005120191</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.377663794759087</v>
+        <v>5.573219967305704</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1957442510957748</v>
+        <v>0.1233952390655801</v>
       </c>
       <c r="E13">
-        <v>0.232706744211022</v>
+        <v>0.3066311084854334</v>
       </c>
       <c r="F13">
-        <v>1.177992328375424</v>
+        <v>0.7076136976885721</v>
       </c>
       <c r="G13">
-        <v>0.002422361270588739</v>
+        <v>0.0007575211952463897</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.777875654007012</v>
+        <v>0.3082841078633791</v>
       </c>
       <c r="J13">
-        <v>0.3423615722757205</v>
+        <v>0.5985811332051441</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.225391680528276</v>
+        <v>3.23318763184102</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.026500729792758</v>
+        <v>2.688196626799112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.347224865910334</v>
+        <v>5.475619790774317</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1956338572806331</v>
+        <v>0.122688989493092</v>
       </c>
       <c r="E14">
-        <v>0.2316161774092151</v>
+        <v>0.3029235752443071</v>
       </c>
       <c r="F14">
-        <v>1.179026363541226</v>
+        <v>0.6988006051822993</v>
       </c>
       <c r="G14">
-        <v>0.00242296298180257</v>
+        <v>0.0007585300259610071</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7799681257592539</v>
+        <v>0.3085731570085954</v>
       </c>
       <c r="J14">
-        <v>0.3398042922141826</v>
+        <v>0.5902888754996809</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.207708125103295</v>
+        <v>3.176437148187119</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.024082253794148</v>
+        <v>2.645955839394361</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.328575120457344</v>
+        <v>5.4158863111806</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1955670610289957</v>
+        <v>0.1222575285914687</v>
       </c>
       <c r="E15">
-        <v>0.2309489608524444</v>
+        <v>0.3006548190884786</v>
       </c>
       <c r="F15">
-        <v>1.179679468234752</v>
+        <v>0.6934731825605667</v>
       </c>
       <c r="G15">
-        <v>0.002423333715145182</v>
+        <v>0.0007591493490379968</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7812641868434298</v>
+        <v>0.3087972631346219</v>
       </c>
       <c r="J15">
-        <v>0.3382386921406209</v>
+        <v>0.5852139973350035</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.196872869582307</v>
+        <v>3.141700607373593</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.022652241159079</v>
+        <v>2.620299252169389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.221625717782388</v>
+        <v>5.074284036520055</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1951969510314413</v>
+        <v>0.1198022451945278</v>
       </c>
       <c r="E16">
-        <v>0.2271376218810488</v>
+        <v>0.2876863623016845</v>
       </c>
       <c r="F16">
-        <v>1.183724084175765</v>
+        <v>0.6639911744915139</v>
       </c>
       <c r="G16">
-        <v>0.002425491524770818</v>
+        <v>0.0007627203902392212</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7889113169545681</v>
+        <v>0.310780986640637</v>
       </c>
       <c r="J16">
-        <v>0.3292795279044753</v>
+        <v>0.5561960112017204</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.13472679670798</v>
+        <v>2.942991395812953</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.015243442618328</v>
+        <v>2.476470292121661</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.155950469634433</v>
+        <v>4.865297751521268</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1949812690135602</v>
+        <v>0.1183112041371004</v>
       </c>
       <c r="E17">
-        <v>0.2248105420959874</v>
+        <v>0.2797588285231853</v>
       </c>
       <c r="F17">
-        <v>1.186474265629478</v>
+        <v>0.6467987098946608</v>
       </c>
       <c r="G17">
-        <v>0.002426845039458891</v>
+        <v>0.0007649314558066841</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.793798615991502</v>
+        <v>0.3125991039522908</v>
       </c>
       <c r="J17">
-        <v>0.3237949655203209</v>
+        <v>0.53844858515059</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.096555533230799</v>
+        <v>2.821374509338966</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.011398253302815</v>
+        <v>2.390953998205049</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.118152579084892</v>
+        <v>4.745285037391739</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1948614164453062</v>
+        <v>0.1174591100036224</v>
       </c>
       <c r="E18">
-        <v>0.2234761925002786</v>
+        <v>0.2752090498968798</v>
       </c>
       <c r="F18">
-        <v>1.188154740192928</v>
+        <v>0.6372228899956127</v>
       </c>
       <c r="G18">
-        <v>0.002427634511046702</v>
+        <v>0.0007662109721245125</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7966816185776295</v>
+        <v>0.3138569287708286</v>
       </c>
       <c r="J18">
-        <v>0.3206447710953881</v>
+        <v>0.5282594888481214</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.074583751127534</v>
+        <v>2.751517178181302</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.009443199734164</v>
+        <v>2.342714016245225</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.105350946033127</v>
+        <v>4.70468162606744</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.194821560423641</v>
+        <v>0.1171715461634832</v>
       </c>
       <c r="E19">
-        <v>0.2230251191642552</v>
+        <v>0.2736702389352033</v>
       </c>
       <c r="F19">
-        <v>1.188740643820786</v>
+        <v>0.6340329736794246</v>
       </c>
       <c r="G19">
-        <v>0.002427903698625612</v>
+        <v>0.0007666455556760144</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7976701046100061</v>
+        <v>0.3143184200981857</v>
       </c>
       <c r="J19">
-        <v>0.3195789332122274</v>
+        <v>0.5248127514998089</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.067141662755489</v>
+        <v>2.727879719146472</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.008825265987525</v>
+        <v>2.326538597125449</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.162944132714586</v>
+        <v>4.887524505300178</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1950037943838012</v>
+        <v>0.1184693558758738</v>
       </c>
       <c r="E20">
-        <v>0.2250578382019697</v>
+        <v>0.2806016909298705</v>
       </c>
       <c r="F20">
-        <v>1.186171290613025</v>
+        <v>0.6485961558234834</v>
       </c>
       <c r="G20">
-        <v>0.002426699821209435</v>
+        <v>0.0007646952864394939</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7932709054613021</v>
+        <v>0.3123834166731676</v>
       </c>
       <c r="J20">
-        <v>0.3243783558631037</v>
+        <v>0.5403358627093127</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.100620666372095</v>
+        <v>2.834310913678053</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.011781009792799</v>
+        <v>2.399958222246511</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.356166568005733</v>
+        <v>5.504276897533373</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1956661112101443</v>
+        <v>0.1228961946208713</v>
       </c>
       <c r="E21">
-        <v>0.2319363396309697</v>
+        <v>0.3040121033727132</v>
       </c>
       <c r="F21">
-        <v>1.178718529924566</v>
+        <v>0.7013743644698565</v>
       </c>
       <c r="G21">
-        <v>0.002422785793004145</v>
+        <v>0.00075823342103797</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7793505226372091</v>
+        <v>0.3084783969611706</v>
       </c>
       <c r="J21">
-        <v>0.3405552596693013</v>
+        <v>0.5927235950357215</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.212902959951521</v>
+        <v>3.193100911129534</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.024781909238527</v>
+        <v>2.658317420612946</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.482225823628767</v>
+        <v>5.909516137204491</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1961358804965485</v>
+        <v>0.1258400966692435</v>
       </c>
       <c r="E22">
-        <v>0.2364672360151729</v>
+        <v>0.3194101111464107</v>
       </c>
       <c r="F22">
-        <v>1.174730196121899</v>
+        <v>0.738996303774897</v>
       </c>
       <c r="G22">
-        <v>0.002420324844953747</v>
+        <v>0.0007540730129028796</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7708953173846353</v>
+        <v>0.3080081528340557</v>
       </c>
       <c r="J22">
-        <v>0.3511642782089126</v>
+        <v>0.6271543905248222</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.286127520767423</v>
+        <v>3.428668881373824</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.035576497769625</v>
+        <v>2.836744774977575</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.414966775524704</v>
+        <v>5.693011670558064</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1958818034477332</v>
+        <v>0.1242641544101417</v>
       </c>
       <c r="E23">
-        <v>0.234045836663725</v>
+        <v>0.3111824512786541</v>
       </c>
       <c r="F23">
-        <v>1.176777901390608</v>
+        <v>0.7186130497490382</v>
       </c>
       <c r="G23">
-        <v>0.002421629441760948</v>
+        <v>0.0007562880808049639</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7753491360320126</v>
+        <v>0.3080588088100029</v>
       </c>
       <c r="J23">
-        <v>0.3454988294725894</v>
+        <v>0.608759120124958</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.247061162733132</v>
+        <v>3.302830611145396</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.029604360443841</v>
+        <v>2.74058021289062</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.159782423029867</v>
+        <v>4.877475370337038</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1949935977449613</v>
+        <v>0.1183978395274892</v>
       </c>
       <c r="E24">
-        <v>0.2249460246544146</v>
+        <v>0.280220608436295</v>
       </c>
       <c r="F24">
-        <v>1.186307956160988</v>
+        <v>0.647782573739299</v>
       </c>
       <c r="G24">
-        <v>0.002426765439050719</v>
+        <v>0.0007648020325252998</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7935092553034089</v>
+        <v>0.3124802688815258</v>
       </c>
       <c r="J24">
-        <v>0.3241145958606921</v>
+        <v>0.5394825807679808</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.098782902476671</v>
+        <v>2.828462175298625</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.011607169540582</v>
+        <v>2.395884545315937</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.883645695261407</v>
+        <v>4.004855966584898</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1941964786673651</v>
+        <v>0.112280234240103</v>
       </c>
       <c r="E25">
-        <v>0.2152888913321078</v>
+        <v>0.2471983908612359</v>
       </c>
       <c r="F25">
-        <v>1.200356516219742</v>
+        <v>0.5831751103194804</v>
       </c>
       <c r="G25">
-        <v>0.002432725040187552</v>
+        <v>0.00077428589901653</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8158479829234402</v>
+        <v>0.32526398617496</v>
       </c>
       <c r="J25">
-        <v>0.3012171848083796</v>
+        <v>0.4654616063629078</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9382085128125937</v>
+        <v>2.320235998137747</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.001996652292263</v>
+        <v>2.059720157911045</v>
       </c>
     </row>
   </sheetData>
